--- a/GIS/GIS modelling/Excel files/source_and_nearestpoints.xlsx
+++ b/GIS/GIS modelling/Excel files/source_and_nearestpoints.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://kth-my.sharepoint.com/personal/skpk_ug_kth_se/Documents/Shravan/PhD/Papers/Paper 3/Stockholm/GIS/GIS modelling/Excel files/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://kth-my.sharepoint.com/personal/skpk_ug_kth_se/Documents/Shravan/PhD/Papers/Paper 3/GitHub/GIS/GIS modelling/Excel files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="7" documentId="13_ncr:1_{60408512-BBBE-4622-BA0A-F75D5D0FB8C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6317F477-B183-4665-A0DD-AB15D1457034}"/>
+  <xr:revisionPtr revIDLastSave="8" documentId="13_ncr:1_{60408512-BBBE-4622-BA0A-F75D5D0FB8C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9046B505-694E-4253-ABF2-2ACCD92A01CA}"/>
   <bookViews>
     <workbookView xWindow="57480" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2217,10 +2217,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J295"/>
+  <dimension ref="A1:I295"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J2" sqref="J2"/>
+      <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2233,7 +2233,7 @@
     <col min="7" max="8" width="11.81640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2256,7 +2256,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -2284,12 +2284,8 @@
       <c r="I2" t="s">
         <v>308</v>
       </c>
-      <c r="J2">
-        <f>C2/10^3</f>
-        <v>0.18656723744292236</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -2317,12 +2313,8 @@
       <c r="I3" t="s">
         <v>309</v>
       </c>
-      <c r="J3">
-        <f t="shared" ref="J3:J66" si="0">C3/10^3</f>
-        <v>0.18656723744292236</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -2350,12 +2342,8 @@
       <c r="I4" t="s">
         <v>310</v>
       </c>
-      <c r="J4">
-        <f t="shared" si="0"/>
-        <v>0.18656723744292236</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -2383,12 +2371,8 @@
       <c r="I5" t="s">
         <v>311</v>
       </c>
-      <c r="J5">
-        <f t="shared" si="0"/>
-        <v>9.3283618721461181E-2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -2416,12 +2400,8 @@
       <c r="I6" t="s">
         <v>312</v>
       </c>
-      <c r="J6">
-        <f t="shared" si="0"/>
-        <v>0.18656723744292236</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -2449,12 +2429,8 @@
       <c r="I7" t="s">
         <v>313</v>
       </c>
-      <c r="J7">
-        <f t="shared" si="0"/>
-        <v>0.18656723744292236</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -2482,12 +2458,8 @@
       <c r="I8" t="s">
         <v>314</v>
       </c>
-      <c r="J8">
-        <f t="shared" si="0"/>
-        <v>0.18656723744292236</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -2515,12 +2487,8 @@
       <c r="I9" t="s">
         <v>315</v>
       </c>
-      <c r="J9">
-        <f t="shared" si="0"/>
-        <v>0.18656723744292236</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -2548,12 +2516,8 @@
       <c r="I10" t="s">
         <v>316</v>
       </c>
-      <c r="J10">
-        <f t="shared" si="0"/>
-        <v>0.18656723744292236</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -2581,12 +2545,8 @@
       <c r="I11" t="s">
         <v>317</v>
       </c>
-      <c r="J11">
-        <f t="shared" si="0"/>
-        <v>9.3283618721461181E-2</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -2614,12 +2574,8 @@
       <c r="I12" t="s">
         <v>318</v>
       </c>
-      <c r="J12">
-        <f t="shared" si="0"/>
-        <v>0.18656723744292236</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -2647,12 +2603,8 @@
       <c r="I13" t="s">
         <v>319</v>
       </c>
-      <c r="J13">
-        <f t="shared" si="0"/>
-        <v>0.18656723744292236</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -2680,12 +2632,8 @@
       <c r="I14" t="s">
         <v>320</v>
       </c>
-      <c r="J14">
-        <f t="shared" si="0"/>
-        <v>0.37313447488584472</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -2713,12 +2661,8 @@
       <c r="I15" t="s">
         <v>321</v>
       </c>
-      <c r="J15">
-        <f t="shared" si="0"/>
-        <v>0.18656723744292236</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -2746,12 +2690,8 @@
       <c r="I16" t="s">
         <v>322</v>
       </c>
-      <c r="J16">
-        <f t="shared" si="0"/>
-        <v>0.18656723744292236</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -2779,12 +2719,8 @@
       <c r="I17" t="s">
         <v>323</v>
       </c>
-      <c r="J17">
-        <f t="shared" si="0"/>
-        <v>0.37313447488584472</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -2812,12 +2748,8 @@
       <c r="I18" t="s">
         <v>324</v>
       </c>
-      <c r="J18">
-        <f t="shared" si="0"/>
-        <v>0.18656723744292236</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -2845,12 +2777,8 @@
       <c r="I19" t="s">
         <v>325</v>
       </c>
-      <c r="J19">
-        <f t="shared" si="0"/>
-        <v>0.18656723744292236</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -2878,12 +2806,8 @@
       <c r="I20" t="s">
         <v>326</v>
       </c>
-      <c r="J20">
-        <f t="shared" si="0"/>
-        <v>0.18656723744292236</v>
-      </c>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -2911,12 +2835,8 @@
       <c r="I21" t="s">
         <v>327</v>
       </c>
-      <c r="J21">
-        <f t="shared" si="0"/>
-        <v>0.37313447488584472</v>
-      </c>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -2944,12 +2864,8 @@
       <c r="I22" t="s">
         <v>328</v>
       </c>
-      <c r="J22">
-        <f t="shared" si="0"/>
-        <v>0.18656723744292236</v>
-      </c>
-    </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -2977,12 +2893,8 @@
       <c r="I23" t="s">
         <v>329</v>
       </c>
-      <c r="J23">
-        <f t="shared" si="0"/>
-        <v>0.18656723744292236</v>
-      </c>
-    </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -3010,12 +2922,8 @@
       <c r="I24" t="s">
         <v>330</v>
       </c>
-      <c r="J24">
-        <f t="shared" si="0"/>
-        <v>0.18656723744292236</v>
-      </c>
-    </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -3043,12 +2951,8 @@
       <c r="I25" t="s">
         <v>331</v>
       </c>
-      <c r="J25">
-        <f t="shared" si="0"/>
-        <v>0.18656723744292236</v>
-      </c>
-    </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A26" s="1">
         <v>24</v>
       </c>
@@ -3076,12 +2980,8 @@
       <c r="I26" t="s">
         <v>332</v>
       </c>
-      <c r="J26">
-        <f t="shared" si="0"/>
-        <v>0.18656723744292236</v>
-      </c>
-    </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A27" s="1">
         <v>25</v>
       </c>
@@ -3109,12 +3009,8 @@
       <c r="I27" t="s">
         <v>333</v>
       </c>
-      <c r="J27">
-        <f t="shared" si="0"/>
-        <v>0.18656723744292236</v>
-      </c>
-    </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A28" s="1">
         <v>26</v>
       </c>
@@ -3142,12 +3038,8 @@
       <c r="I28" t="s">
         <v>334</v>
       </c>
-      <c r="J28">
-        <f t="shared" si="0"/>
-        <v>0.18656723744292236</v>
-      </c>
-    </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A29" s="1">
         <v>27</v>
       </c>
@@ -3175,12 +3067,8 @@
       <c r="I29" t="s">
         <v>335</v>
       </c>
-      <c r="J29">
-        <f t="shared" si="0"/>
-        <v>0.18656723744292236</v>
-      </c>
-    </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A30" s="1">
         <v>28</v>
       </c>
@@ -3208,12 +3096,8 @@
       <c r="I30" t="s">
         <v>336</v>
       </c>
-      <c r="J30">
-        <f t="shared" si="0"/>
-        <v>0.18656723744292236</v>
-      </c>
-    </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A31" s="1">
         <v>29</v>
       </c>
@@ -3241,12 +3125,8 @@
       <c r="I31" t="s">
         <v>337</v>
       </c>
-      <c r="J31">
-        <f t="shared" si="0"/>
-        <v>0.18656723744292236</v>
-      </c>
-    </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A32" s="1">
         <v>30</v>
       </c>
@@ -3274,12 +3154,8 @@
       <c r="I32" t="s">
         <v>338</v>
       </c>
-      <c r="J32">
-        <f t="shared" si="0"/>
-        <v>0.37313447488584472</v>
-      </c>
-    </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A33" s="1">
         <v>31</v>
       </c>
@@ -3307,12 +3183,8 @@
       <c r="I33" t="s">
         <v>339</v>
       </c>
-      <c r="J33">
-        <f t="shared" si="0"/>
-        <v>0.18656723744292236</v>
-      </c>
-    </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A34" s="1">
         <v>32</v>
       </c>
@@ -3340,12 +3212,8 @@
       <c r="I34" t="s">
         <v>340</v>
       </c>
-      <c r="J34">
-        <f t="shared" si="0"/>
-        <v>0.18656723744292236</v>
-      </c>
-    </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A35" s="1">
         <v>33</v>
       </c>
@@ -3373,12 +3241,8 @@
       <c r="I35" t="s">
         <v>341</v>
       </c>
-      <c r="J35">
-        <f t="shared" si="0"/>
-        <v>0.18656723744292236</v>
-      </c>
-    </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A36" s="1">
         <v>34</v>
       </c>
@@ -3406,12 +3270,8 @@
       <c r="I36" t="s">
         <v>342</v>
       </c>
-      <c r="J36">
-        <f t="shared" si="0"/>
-        <v>0.18656723744292236</v>
-      </c>
-    </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A37" s="1">
         <v>35</v>
       </c>
@@ -3439,12 +3299,8 @@
       <c r="I37" t="s">
         <v>343</v>
       </c>
-      <c r="J37">
-        <f t="shared" si="0"/>
-        <v>0.18656723744292236</v>
-      </c>
-    </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A38" s="1">
         <v>36</v>
       </c>
@@ -3472,12 +3328,8 @@
       <c r="I38" t="s">
         <v>344</v>
       </c>
-      <c r="J38">
-        <f t="shared" si="0"/>
-        <v>0.18656723744292236</v>
-      </c>
-    </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A39" s="1">
         <v>37</v>
       </c>
@@ -3505,12 +3357,8 @@
       <c r="I39" t="s">
         <v>345</v>
       </c>
-      <c r="J39">
-        <f t="shared" si="0"/>
-        <v>0.18656723744292236</v>
-      </c>
-    </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A40" s="1">
         <v>38</v>
       </c>
@@ -3538,12 +3386,8 @@
       <c r="I40" t="s">
         <v>346</v>
       </c>
-      <c r="J40">
-        <f t="shared" si="0"/>
-        <v>0.18656723744292236</v>
-      </c>
-    </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A41" s="1">
         <v>39</v>
       </c>
@@ -3571,12 +3415,8 @@
       <c r="I41" t="s">
         <v>347</v>
       </c>
-      <c r="J41">
-        <f t="shared" si="0"/>
-        <v>0.18656723744292236</v>
-      </c>
-    </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A42" s="1">
         <v>40</v>
       </c>
@@ -3604,12 +3444,8 @@
       <c r="I42" t="s">
         <v>348</v>
       </c>
-      <c r="J42">
-        <f t="shared" si="0"/>
-        <v>0.18656723744292236</v>
-      </c>
-    </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A43" s="1">
         <v>41</v>
       </c>
@@ -3637,12 +3473,8 @@
       <c r="I43" t="s">
         <v>349</v>
       </c>
-      <c r="J43">
-        <f t="shared" si="0"/>
-        <v>0.18656723744292236</v>
-      </c>
-    </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A44" s="1">
         <v>42</v>
       </c>
@@ -3670,12 +3502,8 @@
       <c r="I44" t="s">
         <v>350</v>
       </c>
-      <c r="J44">
-        <f t="shared" si="0"/>
-        <v>0.18656723744292236</v>
-      </c>
-    </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A45" s="1">
         <v>43</v>
       </c>
@@ -3703,12 +3531,8 @@
       <c r="I45" t="s">
         <v>351</v>
       </c>
-      <c r="J45">
-        <f t="shared" si="0"/>
-        <v>9.3283618721461181E-2</v>
-      </c>
-    </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A46" s="1">
         <v>44</v>
       </c>
@@ -3736,12 +3560,8 @@
       <c r="I46" t="s">
         <v>352</v>
       </c>
-      <c r="J46">
-        <f t="shared" si="0"/>
-        <v>0.18656723744292236</v>
-      </c>
-    </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A47" s="1">
         <v>45</v>
       </c>
@@ -3769,12 +3589,8 @@
       <c r="I47" t="s">
         <v>353</v>
       </c>
-      <c r="J47">
-        <f t="shared" si="0"/>
-        <v>0.18656723744292236</v>
-      </c>
-    </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A48" s="1">
         <v>46</v>
       </c>
@@ -3802,12 +3618,8 @@
       <c r="I48" t="s">
         <v>354</v>
       </c>
-      <c r="J48">
-        <f t="shared" si="0"/>
-        <v>0.18656723744292236</v>
-      </c>
-    </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="49" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A49" s="1">
         <v>47</v>
       </c>
@@ -3835,12 +3647,8 @@
       <c r="I49" t="s">
         <v>355</v>
       </c>
-      <c r="J49">
-        <f t="shared" si="0"/>
-        <v>0.18656723744292236</v>
-      </c>
-    </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="50" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A50" s="1">
         <v>48</v>
       </c>
@@ -3868,12 +3676,8 @@
       <c r="I50" t="s">
         <v>356</v>
       </c>
-      <c r="J50">
-        <f t="shared" si="0"/>
-        <v>0.18656723744292236</v>
-      </c>
-    </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="51" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A51" s="1">
         <v>49</v>
       </c>
@@ -3901,12 +3705,8 @@
       <c r="I51" t="s">
         <v>357</v>
       </c>
-      <c r="J51">
-        <f t="shared" si="0"/>
-        <v>0.18656723744292236</v>
-      </c>
-    </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="52" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A52" s="1">
         <v>50</v>
       </c>
@@ -3934,12 +3734,8 @@
       <c r="I52" t="s">
         <v>358</v>
       </c>
-      <c r="J52">
-        <f t="shared" si="0"/>
-        <v>0.18656723744292236</v>
-      </c>
-    </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="53" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A53" s="1">
         <v>51</v>
       </c>
@@ -3967,12 +3763,8 @@
       <c r="I53" t="s">
         <v>359</v>
       </c>
-      <c r="J53">
-        <f t="shared" si="0"/>
-        <v>9.3283618721461181E-2</v>
-      </c>
-    </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="54" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A54" s="1">
         <v>52</v>
       </c>
@@ -4000,12 +3792,8 @@
       <c r="I54" t="s">
         <v>360</v>
       </c>
-      <c r="J54">
-        <f t="shared" si="0"/>
-        <v>0.18656723744292236</v>
-      </c>
-    </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="55" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A55" s="1">
         <v>53</v>
       </c>
@@ -4033,12 +3821,8 @@
       <c r="I55" t="s">
         <v>361</v>
       </c>
-      <c r="J55">
-        <f t="shared" si="0"/>
-        <v>0.18656723744292236</v>
-      </c>
-    </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="56" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A56" s="1">
         <v>54</v>
       </c>
@@ -4066,12 +3850,8 @@
       <c r="I56" t="s">
         <v>362</v>
       </c>
-      <c r="J56">
-        <f t="shared" si="0"/>
-        <v>0.18656723744292236</v>
-      </c>
-    </row>
-    <row r="57" spans="1:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="57" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A57" s="1">
         <v>55</v>
       </c>
@@ -4099,12 +3879,8 @@
       <c r="I57" t="s">
         <v>363</v>
       </c>
-      <c r="J57">
-        <f t="shared" si="0"/>
-        <v>0.37313447488584472</v>
-      </c>
-    </row>
-    <row r="58" spans="1:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="58" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A58" s="1">
         <v>56</v>
       </c>
@@ -4132,12 +3908,8 @@
       <c r="I58" t="s">
         <v>364</v>
       </c>
-      <c r="J58">
-        <f t="shared" si="0"/>
-        <v>0.18656723744292236</v>
-      </c>
-    </row>
-    <row r="59" spans="1:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="59" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A59" s="1">
         <v>57</v>
       </c>
@@ -4165,12 +3937,8 @@
       <c r="I59" t="s">
         <v>365</v>
       </c>
-      <c r="J59">
-        <f t="shared" si="0"/>
-        <v>0.18656723744292236</v>
-      </c>
-    </row>
-    <row r="60" spans="1:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="60" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A60" s="1">
         <v>58</v>
       </c>
@@ -4198,12 +3966,8 @@
       <c r="I60" t="s">
         <v>366</v>
       </c>
-      <c r="J60">
-        <f t="shared" si="0"/>
-        <v>0.18656723744292236</v>
-      </c>
-    </row>
-    <row r="61" spans="1:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="61" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A61" s="1">
         <v>59</v>
       </c>
@@ -4231,12 +3995,8 @@
       <c r="I61" t="s">
         <v>367</v>
       </c>
-      <c r="J61">
-        <f t="shared" si="0"/>
-        <v>0.18656723744292236</v>
-      </c>
-    </row>
-    <row r="62" spans="1:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="62" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A62" s="1">
         <v>60</v>
       </c>
@@ -4264,12 +4024,8 @@
       <c r="I62" t="s">
         <v>368</v>
       </c>
-      <c r="J62">
-        <f t="shared" si="0"/>
-        <v>0.18656723744292236</v>
-      </c>
-    </row>
-    <row r="63" spans="1:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="63" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A63" s="1">
         <v>61</v>
       </c>
@@ -4297,12 +4053,8 @@
       <c r="I63" t="s">
         <v>369</v>
       </c>
-      <c r="J63">
-        <f t="shared" si="0"/>
-        <v>0.18656723744292236</v>
-      </c>
-    </row>
-    <row r="64" spans="1:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="64" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A64" s="1">
         <v>62</v>
       </c>
@@ -4330,12 +4082,8 @@
       <c r="I64" t="s">
         <v>370</v>
       </c>
-      <c r="J64">
-        <f t="shared" si="0"/>
-        <v>0.18656723744292236</v>
-      </c>
-    </row>
-    <row r="65" spans="1:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="65" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A65" s="1">
         <v>63</v>
       </c>
@@ -4363,12 +4111,8 @@
       <c r="I65" t="s">
         <v>371</v>
       </c>
-      <c r="J65">
-        <f t="shared" si="0"/>
-        <v>0.18656723744292236</v>
-      </c>
-    </row>
-    <row r="66" spans="1:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="66" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A66" s="1">
         <v>64</v>
       </c>
@@ -4396,12 +4140,8 @@
       <c r="I66" t="s">
         <v>372</v>
       </c>
-      <c r="J66">
-        <f t="shared" si="0"/>
-        <v>0.18656723744292236</v>
-      </c>
-    </row>
-    <row r="67" spans="1:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="67" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A67" s="1">
         <v>65</v>
       </c>
@@ -4429,12 +4169,8 @@
       <c r="I67" t="s">
         <v>373</v>
       </c>
-      <c r="J67">
-        <f t="shared" ref="J67:J130" si="1">C67/10^3</f>
-        <v>0.18656723744292236</v>
-      </c>
-    </row>
-    <row r="68" spans="1:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="68" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A68" s="1">
         <v>66</v>
       </c>
@@ -4462,12 +4198,8 @@
       <c r="I68" t="s">
         <v>374</v>
       </c>
-      <c r="J68">
-        <f t="shared" si="1"/>
-        <v>0.37313447488584472</v>
-      </c>
-    </row>
-    <row r="69" spans="1:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="69" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A69" s="1">
         <v>67</v>
       </c>
@@ -4495,12 +4227,8 @@
       <c r="I69" t="s">
         <v>375</v>
       </c>
-      <c r="J69">
-        <f t="shared" si="1"/>
-        <v>0.18656723744292236</v>
-      </c>
-    </row>
-    <row r="70" spans="1:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="70" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A70" s="1">
         <v>68</v>
       </c>
@@ -4528,12 +4256,8 @@
       <c r="I70" t="s">
         <v>376</v>
       </c>
-      <c r="J70">
-        <f t="shared" si="1"/>
-        <v>0.18656723744292236</v>
-      </c>
-    </row>
-    <row r="71" spans="1:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="71" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A71" s="1">
         <v>69</v>
       </c>
@@ -4561,12 +4285,8 @@
       <c r="I71" t="s">
         <v>377</v>
       </c>
-      <c r="J71">
-        <f t="shared" si="1"/>
-        <v>0.18656723744292236</v>
-      </c>
-    </row>
-    <row r="72" spans="1:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="72" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A72" s="1">
         <v>70</v>
       </c>
@@ -4594,12 +4314,8 @@
       <c r="I72" t="s">
         <v>378</v>
       </c>
-      <c r="J72">
-        <f t="shared" si="1"/>
-        <v>0.18656723744292236</v>
-      </c>
-    </row>
-    <row r="73" spans="1:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="73" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A73" s="1">
         <v>71</v>
       </c>
@@ -4627,12 +4343,8 @@
       <c r="I73" t="s">
         <v>379</v>
       </c>
-      <c r="J73">
-        <f t="shared" si="1"/>
-        <v>0.18656723744292236</v>
-      </c>
-    </row>
-    <row r="74" spans="1:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="74" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A74" s="1">
         <v>72</v>
       </c>
@@ -4660,12 +4372,8 @@
       <c r="I74" t="s">
         <v>380</v>
       </c>
-      <c r="J74">
-        <f t="shared" si="1"/>
-        <v>0.18656723744292236</v>
-      </c>
-    </row>
-    <row r="75" spans="1:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="75" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A75" s="1">
         <v>73</v>
       </c>
@@ -4693,12 +4401,8 @@
       <c r="I75" t="s">
         <v>381</v>
       </c>
-      <c r="J75">
-        <f t="shared" si="1"/>
-        <v>0.18656723744292236</v>
-      </c>
-    </row>
-    <row r="76" spans="1:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="76" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A76" s="1">
         <v>74</v>
       </c>
@@ -4726,12 +4430,8 @@
       <c r="I76" t="s">
         <v>382</v>
       </c>
-      <c r="J76">
-        <f t="shared" si="1"/>
-        <v>0.18656723744292236</v>
-      </c>
-    </row>
-    <row r="77" spans="1:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="77" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A77" s="1">
         <v>75</v>
       </c>
@@ -4759,12 +4459,8 @@
       <c r="I77" t="s">
         <v>383</v>
       </c>
-      <c r="J77">
-        <f t="shared" si="1"/>
-        <v>0.18656723744292236</v>
-      </c>
-    </row>
-    <row r="78" spans="1:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="78" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A78" s="1">
         <v>76</v>
       </c>
@@ -4792,12 +4488,8 @@
       <c r="I78" t="s">
         <v>384</v>
       </c>
-      <c r="J78">
-        <f t="shared" si="1"/>
-        <v>0.18656723744292236</v>
-      </c>
-    </row>
-    <row r="79" spans="1:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="79" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A79" s="1">
         <v>77</v>
       </c>
@@ -4825,12 +4517,8 @@
       <c r="I79" t="s">
         <v>385</v>
       </c>
-      <c r="J79">
-        <f t="shared" si="1"/>
-        <v>0.18656723744292236</v>
-      </c>
-    </row>
-    <row r="80" spans="1:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="80" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A80" s="1">
         <v>78</v>
       </c>
@@ -4858,12 +4546,8 @@
       <c r="I80" t="s">
         <v>386</v>
       </c>
-      <c r="J80">
-        <f t="shared" si="1"/>
-        <v>0.18656723744292236</v>
-      </c>
-    </row>
-    <row r="81" spans="1:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="81" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A81" s="1">
         <v>79</v>
       </c>
@@ -4891,12 +4575,8 @@
       <c r="I81" t="s">
         <v>387</v>
       </c>
-      <c r="J81">
-        <f t="shared" si="1"/>
-        <v>0.18656723744292236</v>
-      </c>
-    </row>
-    <row r="82" spans="1:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="82" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A82" s="1">
         <v>80</v>
       </c>
@@ -4924,12 +4604,8 @@
       <c r="I82" t="s">
         <v>388</v>
       </c>
-      <c r="J82">
-        <f t="shared" si="1"/>
-        <v>0.18656723744292236</v>
-      </c>
-    </row>
-    <row r="83" spans="1:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="83" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A83" s="1">
         <v>81</v>
       </c>
@@ -4957,12 +4633,8 @@
       <c r="I83" t="s">
         <v>389</v>
       </c>
-      <c r="J83">
-        <f t="shared" si="1"/>
-        <v>0.18656723744292236</v>
-      </c>
-    </row>
-    <row r="84" spans="1:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="84" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A84" s="1">
         <v>82</v>
       </c>
@@ -4990,12 +4662,8 @@
       <c r="I84" t="s">
         <v>390</v>
       </c>
-      <c r="J84">
-        <f t="shared" si="1"/>
-        <v>0.18656723744292236</v>
-      </c>
-    </row>
-    <row r="85" spans="1:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="85" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A85" s="1">
         <v>83</v>
       </c>
@@ -5023,12 +4691,8 @@
       <c r="I85" t="s">
         <v>391</v>
       </c>
-      <c r="J85">
-        <f t="shared" si="1"/>
-        <v>0.18656723744292236</v>
-      </c>
-    </row>
-    <row r="86" spans="1:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="86" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A86" s="1">
         <v>84</v>
       </c>
@@ -5056,12 +4720,8 @@
       <c r="I86" t="s">
         <v>392</v>
       </c>
-      <c r="J86">
-        <f t="shared" si="1"/>
-        <v>0.18656723744292236</v>
-      </c>
-    </row>
-    <row r="87" spans="1:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="87" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A87" s="1">
         <v>85</v>
       </c>
@@ -5089,12 +4749,8 @@
       <c r="I87" t="s">
         <v>393</v>
       </c>
-      <c r="J87">
-        <f t="shared" si="1"/>
-        <v>0.18656723744292236</v>
-      </c>
-    </row>
-    <row r="88" spans="1:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="88" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A88" s="1">
         <v>86</v>
       </c>
@@ -5122,12 +4778,8 @@
       <c r="I88" t="s">
         <v>394</v>
       </c>
-      <c r="J88">
-        <f t="shared" si="1"/>
-        <v>0.18656723744292236</v>
-      </c>
-    </row>
-    <row r="89" spans="1:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="89" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A89" s="1">
         <v>87</v>
       </c>
@@ -5155,12 +4807,8 @@
       <c r="I89" t="s">
         <v>395</v>
       </c>
-      <c r="J89">
-        <f t="shared" si="1"/>
-        <v>9.3283618721461181E-2</v>
-      </c>
-    </row>
-    <row r="90" spans="1:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="90" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A90" s="1">
         <v>88</v>
       </c>
@@ -5188,12 +4836,8 @@
       <c r="I90" t="s">
         <v>396</v>
       </c>
-      <c r="J90">
-        <f t="shared" si="1"/>
-        <v>0.18656723744292236</v>
-      </c>
-    </row>
-    <row r="91" spans="1:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="91" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A91" s="1">
         <v>89</v>
       </c>
@@ -5221,12 +4865,8 @@
       <c r="I91" t="s">
         <v>397</v>
       </c>
-      <c r="J91">
-        <f t="shared" si="1"/>
-        <v>0.18656723744292236</v>
-      </c>
-    </row>
-    <row r="92" spans="1:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="92" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A92" s="1">
         <v>90</v>
       </c>
@@ -5254,12 +4894,8 @@
       <c r="I92" t="s">
         <v>398</v>
       </c>
-      <c r="J92">
-        <f t="shared" si="1"/>
-        <v>0.18656723744292236</v>
-      </c>
-    </row>
-    <row r="93" spans="1:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="93" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A93" s="1">
         <v>91</v>
       </c>
@@ -5287,12 +4923,8 @@
       <c r="I93" t="s">
         <v>399</v>
       </c>
-      <c r="J93">
-        <f t="shared" si="1"/>
-        <v>0.37313447488584472</v>
-      </c>
-    </row>
-    <row r="94" spans="1:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="94" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A94" s="1">
         <v>92</v>
       </c>
@@ -5320,12 +4952,8 @@
       <c r="I94" t="s">
         <v>400</v>
       </c>
-      <c r="J94">
-        <f t="shared" si="1"/>
-        <v>0.18656723744292236</v>
-      </c>
-    </row>
-    <row r="95" spans="1:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="95" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A95" s="1">
         <v>93</v>
       </c>
@@ -5353,12 +4981,8 @@
       <c r="I95" t="s">
         <v>401</v>
       </c>
-      <c r="J95">
-        <f t="shared" si="1"/>
-        <v>0.37313447488584472</v>
-      </c>
-    </row>
-    <row r="96" spans="1:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="96" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A96" s="1">
         <v>94</v>
       </c>
@@ -5386,12 +5010,8 @@
       <c r="I96" t="s">
         <v>402</v>
       </c>
-      <c r="J96">
-        <f t="shared" si="1"/>
-        <v>0.18656723744292236</v>
-      </c>
-    </row>
-    <row r="97" spans="1:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="97" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A97" s="1">
         <v>95</v>
       </c>
@@ -5419,12 +5039,8 @@
       <c r="I97" t="s">
         <v>403</v>
       </c>
-      <c r="J97">
-        <f t="shared" si="1"/>
-        <v>0.18656723744292236</v>
-      </c>
-    </row>
-    <row r="98" spans="1:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="98" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A98" s="1">
         <v>96</v>
       </c>
@@ -5452,12 +5068,8 @@
       <c r="I98" t="s">
         <v>404</v>
       </c>
-      <c r="J98">
-        <f t="shared" si="1"/>
-        <v>0.18656723744292236</v>
-      </c>
-    </row>
-    <row r="99" spans="1:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="99" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A99" s="1">
         <v>97</v>
       </c>
@@ -5485,12 +5097,8 @@
       <c r="I99" t="s">
         <v>405</v>
       </c>
-      <c r="J99">
-        <f t="shared" si="1"/>
-        <v>0.18656723744292236</v>
-      </c>
-    </row>
-    <row r="100" spans="1:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="100" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A100" s="1">
         <v>98</v>
       </c>
@@ -5518,12 +5126,8 @@
       <c r="I100" t="s">
         <v>406</v>
       </c>
-      <c r="J100">
-        <f t="shared" si="1"/>
-        <v>0.18656723744292236</v>
-      </c>
-    </row>
-    <row r="101" spans="1:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="101" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A101" s="1">
         <v>99</v>
       </c>
@@ -5551,12 +5155,8 @@
       <c r="I101" t="s">
         <v>407</v>
       </c>
-      <c r="J101">
-        <f t="shared" si="1"/>
-        <v>0.18656723744292236</v>
-      </c>
-    </row>
-    <row r="102" spans="1:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="102" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A102" s="1">
         <v>100</v>
       </c>
@@ -5584,12 +5184,8 @@
       <c r="I102" t="s">
         <v>408</v>
       </c>
-      <c r="J102">
-        <f t="shared" si="1"/>
-        <v>0.18656723744292236</v>
-      </c>
-    </row>
-    <row r="103" spans="1:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="103" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A103" s="1">
         <v>101</v>
       </c>
@@ -5617,12 +5213,8 @@
       <c r="I103" t="s">
         <v>409</v>
       </c>
-      <c r="J103">
-        <f t="shared" si="1"/>
-        <v>0.18656723744292236</v>
-      </c>
-    </row>
-    <row r="104" spans="1:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="104" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A104" s="1">
         <v>102</v>
       </c>
@@ -5650,12 +5242,8 @@
       <c r="I104" t="s">
         <v>410</v>
       </c>
-      <c r="J104">
-        <f t="shared" si="1"/>
-        <v>0.37313447488584472</v>
-      </c>
-    </row>
-    <row r="105" spans="1:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="105" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A105" s="1">
         <v>103</v>
       </c>
@@ -5683,12 +5271,8 @@
       <c r="I105" t="s">
         <v>411</v>
       </c>
-      <c r="J105">
-        <f t="shared" si="1"/>
-        <v>0.37313447488584472</v>
-      </c>
-    </row>
-    <row r="106" spans="1:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="106" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A106" s="1">
         <v>104</v>
       </c>
@@ -5716,12 +5300,8 @@
       <c r="I106" t="s">
         <v>412</v>
       </c>
-      <c r="J106">
-        <f t="shared" si="1"/>
-        <v>0.18656723744292236</v>
-      </c>
-    </row>
-    <row r="107" spans="1:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="107" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A107" s="1">
         <v>105</v>
       </c>
@@ -5749,12 +5329,8 @@
       <c r="I107" t="s">
         <v>413</v>
       </c>
-      <c r="J107">
-        <f t="shared" si="1"/>
-        <v>0.37313447488584472</v>
-      </c>
-    </row>
-    <row r="108" spans="1:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="108" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A108" s="1">
         <v>106</v>
       </c>
@@ -5782,12 +5358,8 @@
       <c r="I108" t="s">
         <v>414</v>
       </c>
-      <c r="J108">
-        <f t="shared" si="1"/>
-        <v>0.18656723744292236</v>
-      </c>
-    </row>
-    <row r="109" spans="1:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="109" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A109" s="1">
         <v>107</v>
       </c>
@@ -5815,12 +5387,8 @@
       <c r="I109" t="s">
         <v>415</v>
       </c>
-      <c r="J109">
-        <f t="shared" si="1"/>
-        <v>0.18656723744292236</v>
-      </c>
-    </row>
-    <row r="110" spans="1:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="110" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A110" s="1">
         <v>108</v>
       </c>
@@ -5848,12 +5416,8 @@
       <c r="I110" t="s">
         <v>416</v>
       </c>
-      <c r="J110">
-        <f t="shared" si="1"/>
-        <v>0.18656723744292236</v>
-      </c>
-    </row>
-    <row r="111" spans="1:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="111" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A111" s="1">
         <v>109</v>
       </c>
@@ -5881,12 +5445,8 @@
       <c r="I111" t="s">
         <v>417</v>
       </c>
-      <c r="J111">
-        <f t="shared" si="1"/>
-        <v>0.18656723744292236</v>
-      </c>
-    </row>
-    <row r="112" spans="1:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="112" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A112" s="1">
         <v>110</v>
       </c>
@@ -5914,12 +5474,8 @@
       <c r="I112" t="s">
         <v>418</v>
       </c>
-      <c r="J112">
-        <f t="shared" si="1"/>
-        <v>0.18656723744292236</v>
-      </c>
-    </row>
-    <row r="113" spans="1:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="113" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A113" s="1">
         <v>111</v>
       </c>
@@ -5947,12 +5503,8 @@
       <c r="I113" t="s">
         <v>419</v>
       </c>
-      <c r="J113">
-        <f t="shared" si="1"/>
-        <v>0.18656723744292236</v>
-      </c>
-    </row>
-    <row r="114" spans="1:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="114" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A114" s="1">
         <v>112</v>
       </c>
@@ -5980,12 +5532,8 @@
       <c r="I114" t="s">
         <v>420</v>
       </c>
-      <c r="J114">
-        <f t="shared" si="1"/>
-        <v>9.3283618721461181E-2</v>
-      </c>
-    </row>
-    <row r="115" spans="1:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="115" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A115" s="1">
         <v>113</v>
       </c>
@@ -6013,12 +5561,8 @@
       <c r="I115" t="s">
         <v>421</v>
       </c>
-      <c r="J115">
-        <f t="shared" si="1"/>
-        <v>0.18656723744292236</v>
-      </c>
-    </row>
-    <row r="116" spans="1:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="116" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A116" s="1">
         <v>114</v>
       </c>
@@ -6046,12 +5590,8 @@
       <c r="I116" t="s">
         <v>422</v>
       </c>
-      <c r="J116">
-        <f t="shared" si="1"/>
-        <v>0.18656723744292236</v>
-      </c>
-    </row>
-    <row r="117" spans="1:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="117" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A117" s="1">
         <v>115</v>
       </c>
@@ -6079,12 +5619,8 @@
       <c r="I117" t="s">
         <v>423</v>
       </c>
-      <c r="J117">
-        <f t="shared" si="1"/>
-        <v>0.18656723744292236</v>
-      </c>
-    </row>
-    <row r="118" spans="1:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="118" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A118" s="1">
         <v>116</v>
       </c>
@@ -6112,12 +5648,8 @@
       <c r="I118" t="s">
         <v>424</v>
       </c>
-      <c r="J118">
-        <f t="shared" si="1"/>
-        <v>0.18656723744292236</v>
-      </c>
-    </row>
-    <row r="119" spans="1:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="119" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A119" s="1">
         <v>117</v>
       </c>
@@ -6145,12 +5677,8 @@
       <c r="I119" t="s">
         <v>425</v>
       </c>
-      <c r="J119">
-        <f t="shared" si="1"/>
-        <v>0.18656723744292236</v>
-      </c>
-    </row>
-    <row r="120" spans="1:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="120" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A120" s="1">
         <v>118</v>
       </c>
@@ -6178,12 +5706,8 @@
       <c r="I120" t="s">
         <v>426</v>
       </c>
-      <c r="J120">
-        <f t="shared" si="1"/>
-        <v>0.18656723744292236</v>
-      </c>
-    </row>
-    <row r="121" spans="1:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="121" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A121" s="1">
         <v>119</v>
       </c>
@@ -6211,12 +5735,8 @@
       <c r="I121" t="s">
         <v>427</v>
       </c>
-      <c r="J121">
-        <f t="shared" si="1"/>
-        <v>0.18656723744292236</v>
-      </c>
-    </row>
-    <row r="122" spans="1:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="122" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A122" s="1">
         <v>120</v>
       </c>
@@ -6244,12 +5764,8 @@
       <c r="I122" t="s">
         <v>428</v>
       </c>
-      <c r="J122">
-        <f t="shared" si="1"/>
-        <v>0.18656723744292236</v>
-      </c>
-    </row>
-    <row r="123" spans="1:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="123" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A123" s="1">
         <v>121</v>
       </c>
@@ -6277,12 +5793,8 @@
       <c r="I123" t="s">
         <v>429</v>
       </c>
-      <c r="J123">
-        <f t="shared" si="1"/>
-        <v>0.18656723744292236</v>
-      </c>
-    </row>
-    <row r="124" spans="1:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="124" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A124" s="1">
         <v>122</v>
       </c>
@@ -6310,12 +5822,8 @@
       <c r="I124" t="s">
         <v>430</v>
       </c>
-      <c r="J124">
-        <f t="shared" si="1"/>
-        <v>0.37313447488584472</v>
-      </c>
-    </row>
-    <row r="125" spans="1:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="125" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A125" s="1">
         <v>123</v>
       </c>
@@ -6343,12 +5851,8 @@
       <c r="I125" t="s">
         <v>431</v>
       </c>
-      <c r="J125">
-        <f t="shared" si="1"/>
-        <v>0.18656723744292236</v>
-      </c>
-    </row>
-    <row r="126" spans="1:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="126" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A126" s="1">
         <v>124</v>
       </c>
@@ -6376,12 +5880,8 @@
       <c r="I126" t="s">
         <v>432</v>
       </c>
-      <c r="J126">
-        <f t="shared" si="1"/>
-        <v>0.18656723744292236</v>
-      </c>
-    </row>
-    <row r="127" spans="1:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="127" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A127" s="1">
         <v>125</v>
       </c>
@@ -6409,12 +5909,8 @@
       <c r="I127" t="s">
         <v>433</v>
       </c>
-      <c r="J127">
-        <f t="shared" si="1"/>
-        <v>0.18656723744292236</v>
-      </c>
-    </row>
-    <row r="128" spans="1:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="128" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A128" s="1">
         <v>126</v>
       </c>
@@ -6442,12 +5938,8 @@
       <c r="I128" t="s">
         <v>434</v>
       </c>
-      <c r="J128">
-        <f t="shared" si="1"/>
-        <v>0.18656723744292236</v>
-      </c>
-    </row>
-    <row r="129" spans="1:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="129" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A129" s="1">
         <v>127</v>
       </c>
@@ -6475,12 +5967,8 @@
       <c r="I129" t="s">
         <v>435</v>
       </c>
-      <c r="J129">
-        <f t="shared" si="1"/>
-        <v>0.18656723744292236</v>
-      </c>
-    </row>
-    <row r="130" spans="1:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="130" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A130" s="1">
         <v>128</v>
       </c>
@@ -6508,12 +5996,8 @@
       <c r="I130" t="s">
         <v>436</v>
       </c>
-      <c r="J130">
-        <f t="shared" si="1"/>
-        <v>9.3283618721461181E-2</v>
-      </c>
-    </row>
-    <row r="131" spans="1:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="131" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A131" s="1">
         <v>129</v>
       </c>
@@ -6541,12 +6025,8 @@
       <c r="I131" t="s">
         <v>437</v>
       </c>
-      <c r="J131">
-        <f t="shared" ref="J131:J194" si="2">C131/10^3</f>
-        <v>0.18656723744292236</v>
-      </c>
-    </row>
-    <row r="132" spans="1:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="132" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A132" s="1">
         <v>130</v>
       </c>
@@ -6574,12 +6054,8 @@
       <c r="I132" t="s">
         <v>438</v>
       </c>
-      <c r="J132">
-        <f t="shared" si="2"/>
-        <v>0.18656723744292236</v>
-      </c>
-    </row>
-    <row r="133" spans="1:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="133" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A133" s="1">
         <v>131</v>
       </c>
@@ -6607,12 +6083,8 @@
       <c r="I133" t="s">
         <v>439</v>
       </c>
-      <c r="J133">
-        <f t="shared" si="2"/>
-        <v>0.18656723744292236</v>
-      </c>
-    </row>
-    <row r="134" spans="1:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="134" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A134" s="1">
         <v>132</v>
       </c>
@@ -6640,12 +6112,8 @@
       <c r="I134" t="s">
         <v>440</v>
       </c>
-      <c r="J134">
-        <f t="shared" si="2"/>
-        <v>0.18656723744292236</v>
-      </c>
-    </row>
-    <row r="135" spans="1:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="135" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A135" s="1">
         <v>133</v>
       </c>
@@ -6673,12 +6141,8 @@
       <c r="I135" t="s">
         <v>441</v>
       </c>
-      <c r="J135">
-        <f t="shared" si="2"/>
-        <v>0.18656723744292236</v>
-      </c>
-    </row>
-    <row r="136" spans="1:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="136" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A136" s="1">
         <v>134</v>
       </c>
@@ -6706,12 +6170,8 @@
       <c r="I136" t="s">
         <v>442</v>
       </c>
-      <c r="J136">
-        <f t="shared" si="2"/>
-        <v>0.18656723744292236</v>
-      </c>
-    </row>
-    <row r="137" spans="1:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="137" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A137" s="1">
         <v>135</v>
       </c>
@@ -6739,12 +6199,8 @@
       <c r="I137" t="s">
         <v>443</v>
       </c>
-      <c r="J137">
-        <f t="shared" si="2"/>
-        <v>0.18656723744292236</v>
-      </c>
-    </row>
-    <row r="138" spans="1:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="138" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A138" s="1">
         <v>136</v>
       </c>
@@ -6772,12 +6228,8 @@
       <c r="I138" t="s">
         <v>444</v>
       </c>
-      <c r="J138">
-        <f t="shared" si="2"/>
-        <v>0.18656723744292236</v>
-      </c>
-    </row>
-    <row r="139" spans="1:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="139" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A139" s="1">
         <v>137</v>
       </c>
@@ -6805,12 +6257,8 @@
       <c r="I139" t="s">
         <v>445</v>
       </c>
-      <c r="J139">
-        <f t="shared" si="2"/>
-        <v>0.18656723744292236</v>
-      </c>
-    </row>
-    <row r="140" spans="1:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="140" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A140" s="1">
         <v>138</v>
       </c>
@@ -6838,12 +6286,8 @@
       <c r="I140" t="s">
         <v>446</v>
       </c>
-      <c r="J140">
-        <f t="shared" si="2"/>
-        <v>9.3283618721461181E-2</v>
-      </c>
-    </row>
-    <row r="141" spans="1:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="141" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A141" s="1">
         <v>139</v>
       </c>
@@ -6871,12 +6315,8 @@
       <c r="I141" t="s">
         <v>447</v>
       </c>
-      <c r="J141">
-        <f t="shared" si="2"/>
-        <v>0.18656723744292236</v>
-      </c>
-    </row>
-    <row r="142" spans="1:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="142" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A142" s="1">
         <v>140</v>
       </c>
@@ -6904,12 +6344,8 @@
       <c r="I142" t="s">
         <v>448</v>
       </c>
-      <c r="J142">
-        <f t="shared" si="2"/>
-        <v>9.3283618721461181E-2</v>
-      </c>
-    </row>
-    <row r="143" spans="1:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="143" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A143" s="1">
         <v>141</v>
       </c>
@@ -6937,12 +6373,8 @@
       <c r="I143" t="s">
         <v>449</v>
       </c>
-      <c r="J143">
-        <f t="shared" si="2"/>
-        <v>0.18656723744292236</v>
-      </c>
-    </row>
-    <row r="144" spans="1:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="144" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A144" s="1">
         <v>142</v>
       </c>
@@ -6970,12 +6402,8 @@
       <c r="I144" t="s">
         <v>450</v>
       </c>
-      <c r="J144">
-        <f t="shared" si="2"/>
-        <v>0.18656723744292236</v>
-      </c>
-    </row>
-    <row r="145" spans="1:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="145" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A145" s="1">
         <v>143</v>
       </c>
@@ -7003,12 +6431,8 @@
       <c r="I145" t="s">
         <v>451</v>
       </c>
-      <c r="J145">
-        <f t="shared" si="2"/>
-        <v>0.18656723744292236</v>
-      </c>
-    </row>
-    <row r="146" spans="1:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="146" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A146" s="1">
         <v>144</v>
       </c>
@@ -7036,12 +6460,8 @@
       <c r="I146" t="s">
         <v>452</v>
       </c>
-      <c r="J146">
-        <f t="shared" si="2"/>
-        <v>0.37313447488584472</v>
-      </c>
-    </row>
-    <row r="147" spans="1:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="147" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A147" s="1">
         <v>145</v>
       </c>
@@ -7069,12 +6489,8 @@
       <c r="I147" t="s">
         <v>453</v>
       </c>
-      <c r="J147">
-        <f t="shared" si="2"/>
-        <v>0.18656723744292236</v>
-      </c>
-    </row>
-    <row r="148" spans="1:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="148" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A148" s="1">
         <v>146</v>
       </c>
@@ -7102,12 +6518,8 @@
       <c r="I148" t="s">
         <v>454</v>
       </c>
-      <c r="J148">
-        <f t="shared" si="2"/>
-        <v>0.18656723744292236</v>
-      </c>
-    </row>
-    <row r="149" spans="1:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="149" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A149" s="1">
         <v>147</v>
       </c>
@@ -7135,12 +6547,8 @@
       <c r="I149" t="s">
         <v>455</v>
       </c>
-      <c r="J149">
-        <f t="shared" si="2"/>
-        <v>0.18656723744292236</v>
-      </c>
-    </row>
-    <row r="150" spans="1:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="150" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A150" s="1">
         <v>148</v>
       </c>
@@ -7168,12 +6576,8 @@
       <c r="I150" t="s">
         <v>456</v>
       </c>
-      <c r="J150">
-        <f t="shared" si="2"/>
-        <v>0.18656723744292236</v>
-      </c>
-    </row>
-    <row r="151" spans="1:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="151" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A151" s="1">
         <v>149</v>
       </c>
@@ -7201,12 +6605,8 @@
       <c r="I151" t="s">
         <v>457</v>
       </c>
-      <c r="J151">
-        <f t="shared" si="2"/>
-        <v>0.18656723744292236</v>
-      </c>
-    </row>
-    <row r="152" spans="1:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="152" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A152" s="1">
         <v>150</v>
       </c>
@@ -7234,12 +6634,8 @@
       <c r="I152" t="s">
         <v>458</v>
       </c>
-      <c r="J152">
-        <f t="shared" si="2"/>
-        <v>0.18656723744292236</v>
-      </c>
-    </row>
-    <row r="153" spans="1:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="153" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A153" s="1">
         <v>151</v>
       </c>
@@ -7267,12 +6663,8 @@
       <c r="I153" t="s">
         <v>459</v>
       </c>
-      <c r="J153">
-        <f t="shared" si="2"/>
-        <v>0.18656723744292236</v>
-      </c>
-    </row>
-    <row r="154" spans="1:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="154" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A154" s="1">
         <v>152</v>
       </c>
@@ -7300,12 +6692,8 @@
       <c r="I154" t="s">
         <v>460</v>
       </c>
-      <c r="J154">
-        <f t="shared" si="2"/>
-        <v>0.18656723744292236</v>
-      </c>
-    </row>
-    <row r="155" spans="1:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="155" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A155" s="1">
         <v>153</v>
       </c>
@@ -7333,12 +6721,8 @@
       <c r="I155" t="s">
         <v>461</v>
       </c>
-      <c r="J155">
-        <f t="shared" si="2"/>
-        <v>0.18656723744292236</v>
-      </c>
-    </row>
-    <row r="156" spans="1:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="156" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A156" s="1">
         <v>154</v>
       </c>
@@ -7366,12 +6750,8 @@
       <c r="I156" t="s">
         <v>462</v>
       </c>
-      <c r="J156">
-        <f t="shared" si="2"/>
-        <v>0.18656723744292236</v>
-      </c>
-    </row>
-    <row r="157" spans="1:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="157" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A157" s="1">
         <v>155</v>
       </c>
@@ -7399,12 +6779,8 @@
       <c r="I157" t="s">
         <v>463</v>
       </c>
-      <c r="J157">
-        <f t="shared" si="2"/>
-        <v>0.18656723744292236</v>
-      </c>
-    </row>
-    <row r="158" spans="1:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="158" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A158" s="1">
         <v>156</v>
       </c>
@@ -7432,12 +6808,8 @@
       <c r="I158" t="s">
         <v>464</v>
       </c>
-      <c r="J158">
-        <f t="shared" si="2"/>
-        <v>0.18656723744292236</v>
-      </c>
-    </row>
-    <row r="159" spans="1:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="159" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A159" s="1">
         <v>157</v>
       </c>
@@ -7465,12 +6837,8 @@
       <c r="I159" t="s">
         <v>465</v>
       </c>
-      <c r="J159">
-        <f t="shared" si="2"/>
-        <v>0.18656723744292236</v>
-      </c>
-    </row>
-    <row r="160" spans="1:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="160" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A160" s="1">
         <v>158</v>
       </c>
@@ -7498,12 +6866,8 @@
       <c r="I160" t="s">
         <v>466</v>
       </c>
-      <c r="J160">
-        <f t="shared" si="2"/>
-        <v>0.18656723744292236</v>
-      </c>
-    </row>
-    <row r="161" spans="1:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="161" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A161" s="1">
         <v>159</v>
       </c>
@@ -7531,12 +6895,8 @@
       <c r="I161" t="s">
         <v>467</v>
       </c>
-      <c r="J161">
-        <f t="shared" si="2"/>
-        <v>0.18656723744292236</v>
-      </c>
-    </row>
-    <row r="162" spans="1:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="162" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A162" s="1">
         <v>160</v>
       </c>
@@ -7564,12 +6924,8 @@
       <c r="I162" t="s">
         <v>468</v>
       </c>
-      <c r="J162">
-        <f t="shared" si="2"/>
-        <v>9.3283618721461181E-2</v>
-      </c>
-    </row>
-    <row r="163" spans="1:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="163" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A163" s="1">
         <v>161</v>
       </c>
@@ -7597,12 +6953,8 @@
       <c r="I163" t="s">
         <v>469</v>
       </c>
-      <c r="J163">
-        <f t="shared" si="2"/>
-        <v>0.18656723744292236</v>
-      </c>
-    </row>
-    <row r="164" spans="1:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="164" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A164" s="1">
         <v>162</v>
       </c>
@@ -7630,12 +6982,8 @@
       <c r="I164" t="s">
         <v>470</v>
       </c>
-      <c r="J164">
-        <f t="shared" si="2"/>
-        <v>9.3283618721461181E-2</v>
-      </c>
-    </row>
-    <row r="165" spans="1:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="165" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A165" s="1">
         <v>163</v>
       </c>
@@ -7663,12 +7011,8 @@
       <c r="I165" t="s">
         <v>471</v>
       </c>
-      <c r="J165">
-        <f t="shared" si="2"/>
-        <v>9.3283618721461181E-2</v>
-      </c>
-    </row>
-    <row r="166" spans="1:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="166" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A166" s="1">
         <v>164</v>
       </c>
@@ -7696,12 +7040,8 @@
       <c r="I166" t="s">
         <v>472</v>
       </c>
-      <c r="J166">
-        <f t="shared" si="2"/>
-        <v>0.18656723744292236</v>
-      </c>
-    </row>
-    <row r="167" spans="1:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="167" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A167" s="1">
         <v>165</v>
       </c>
@@ -7729,12 +7069,8 @@
       <c r="I167" t="s">
         <v>473</v>
       </c>
-      <c r="J167">
-        <f t="shared" si="2"/>
-        <v>9.3283618721461181E-2</v>
-      </c>
-    </row>
-    <row r="168" spans="1:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="168" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A168" s="1">
         <v>166</v>
       </c>
@@ -7762,12 +7098,8 @@
       <c r="I168" t="s">
         <v>474</v>
       </c>
-      <c r="J168">
-        <f t="shared" si="2"/>
-        <v>0.18656723744292236</v>
-      </c>
-    </row>
-    <row r="169" spans="1:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="169" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A169" s="1">
         <v>167</v>
       </c>
@@ -7795,12 +7127,8 @@
       <c r="I169" t="s">
         <v>475</v>
       </c>
-      <c r="J169">
-        <f t="shared" si="2"/>
-        <v>0.18656723744292236</v>
-      </c>
-    </row>
-    <row r="170" spans="1:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="170" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A170" s="1">
         <v>168</v>
       </c>
@@ -7828,12 +7156,8 @@
       <c r="I170" t="s">
         <v>476</v>
       </c>
-      <c r="J170">
-        <f t="shared" si="2"/>
-        <v>9.3283618721461181E-2</v>
-      </c>
-    </row>
-    <row r="171" spans="1:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="171" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A171" s="1">
         <v>169</v>
       </c>
@@ -7861,12 +7185,8 @@
       <c r="I171" t="s">
         <v>477</v>
       </c>
-      <c r="J171">
-        <f t="shared" si="2"/>
-        <v>9.3283618721461181E-2</v>
-      </c>
-    </row>
-    <row r="172" spans="1:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="172" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A172" s="1">
         <v>170</v>
       </c>
@@ -7894,12 +7214,8 @@
       <c r="I172" t="s">
         <v>478</v>
       </c>
-      <c r="J172">
-        <f t="shared" si="2"/>
-        <v>9.3283618721461181E-2</v>
-      </c>
-    </row>
-    <row r="173" spans="1:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="173" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A173" s="1">
         <v>171</v>
       </c>
@@ -7927,12 +7243,8 @@
       <c r="I173" t="s">
         <v>479</v>
       </c>
-      <c r="J173">
-        <f t="shared" si="2"/>
-        <v>9.3283618721461181E-2</v>
-      </c>
-    </row>
-    <row r="174" spans="1:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="174" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A174" s="1">
         <v>172</v>
       </c>
@@ -7960,12 +7272,8 @@
       <c r="I174" t="s">
         <v>480</v>
       </c>
-      <c r="J174">
-        <f t="shared" si="2"/>
-        <v>9.3283618721461181E-2</v>
-      </c>
-    </row>
-    <row r="175" spans="1:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="175" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A175" s="1">
         <v>173</v>
       </c>
@@ -7993,12 +7301,8 @@
       <c r="I175" t="s">
         <v>481</v>
       </c>
-      <c r="J175">
-        <f t="shared" si="2"/>
-        <v>0.18656723744292236</v>
-      </c>
-    </row>
-    <row r="176" spans="1:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="176" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A176" s="1">
         <v>174</v>
       </c>
@@ -8026,12 +7330,8 @@
       <c r="I176" t="s">
         <v>482</v>
       </c>
-      <c r="J176">
-        <f t="shared" si="2"/>
-        <v>9.3283618721461181E-2</v>
-      </c>
-    </row>
-    <row r="177" spans="1:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="177" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A177" s="1">
         <v>175</v>
       </c>
@@ -8059,12 +7359,8 @@
       <c r="I177" t="s">
         <v>483</v>
       </c>
-      <c r="J177">
-        <f t="shared" si="2"/>
-        <v>0.18656723744292236</v>
-      </c>
-    </row>
-    <row r="178" spans="1:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="178" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A178" s="1">
         <v>176</v>
       </c>
@@ -8092,12 +7388,8 @@
       <c r="I178" t="s">
         <v>484</v>
       </c>
-      <c r="J178">
-        <f t="shared" si="2"/>
-        <v>0.18656723744292236</v>
-      </c>
-    </row>
-    <row r="179" spans="1:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="179" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A179" s="1">
         <v>177</v>
       </c>
@@ -8125,12 +7417,8 @@
       <c r="I179" t="s">
         <v>485</v>
       </c>
-      <c r="J179">
-        <f t="shared" si="2"/>
-        <v>0.18656723744292236</v>
-      </c>
-    </row>
-    <row r="180" spans="1:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="180" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A180" s="1">
         <v>178</v>
       </c>
@@ -8158,12 +7446,8 @@
       <c r="I180" t="s">
         <v>486</v>
       </c>
-      <c r="J180">
-        <f t="shared" si="2"/>
-        <v>0.18656723744292236</v>
-      </c>
-    </row>
-    <row r="181" spans="1:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="181" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A181" s="1">
         <v>179</v>
       </c>
@@ -8191,12 +7475,8 @@
       <c r="I181" t="s">
         <v>487</v>
       </c>
-      <c r="J181">
-        <f t="shared" si="2"/>
-        <v>9.3283618721461181E-2</v>
-      </c>
-    </row>
-    <row r="182" spans="1:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="182" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A182" s="1">
         <v>180</v>
       </c>
@@ -8224,12 +7504,8 @@
       <c r="I182" t="s">
         <v>488</v>
       </c>
-      <c r="J182">
-        <f t="shared" si="2"/>
-        <v>9.3283618721461181E-2</v>
-      </c>
-    </row>
-    <row r="183" spans="1:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="183" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A183" s="1">
         <v>181</v>
       </c>
@@ -8257,12 +7533,8 @@
       <c r="I183" t="s">
         <v>489</v>
       </c>
-      <c r="J183">
-        <f t="shared" si="2"/>
-        <v>0.18656723744292236</v>
-      </c>
-    </row>
-    <row r="184" spans="1:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="184" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A184" s="1">
         <v>182</v>
       </c>
@@ -8290,12 +7562,8 @@
       <c r="I184" t="s">
         <v>490</v>
       </c>
-      <c r="J184">
-        <f t="shared" si="2"/>
-        <v>9.3283618721461181E-2</v>
-      </c>
-    </row>
-    <row r="185" spans="1:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="185" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A185" s="1">
         <v>183</v>
       </c>
@@ -8323,12 +7591,8 @@
       <c r="I185" t="s">
         <v>491</v>
       </c>
-      <c r="J185">
-        <f t="shared" si="2"/>
-        <v>0.18656723744292236</v>
-      </c>
-    </row>
-    <row r="186" spans="1:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="186" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A186" s="1">
         <v>184</v>
       </c>
@@ -8356,12 +7620,8 @@
       <c r="I186" t="s">
         <v>492</v>
       </c>
-      <c r="J186">
-        <f t="shared" si="2"/>
-        <v>9.3283618721461181E-2</v>
-      </c>
-    </row>
-    <row r="187" spans="1:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="187" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A187" s="1">
         <v>185</v>
       </c>
@@ -8389,12 +7649,8 @@
       <c r="I187" t="s">
         <v>493</v>
       </c>
-      <c r="J187">
-        <f t="shared" si="2"/>
-        <v>0.18656723744292236</v>
-      </c>
-    </row>
-    <row r="188" spans="1:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="188" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A188" s="1">
         <v>186</v>
       </c>
@@ -8422,12 +7678,8 @@
       <c r="I188" t="s">
         <v>494</v>
       </c>
-      <c r="J188">
-        <f t="shared" si="2"/>
-        <v>9.3283618721461181E-2</v>
-      </c>
-    </row>
-    <row r="189" spans="1:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="189" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A189" s="1">
         <v>187</v>
       </c>
@@ -8455,12 +7707,8 @@
       <c r="I189" t="s">
         <v>495</v>
       </c>
-      <c r="J189">
-        <f t="shared" si="2"/>
-        <v>9.3283618721461181E-2</v>
-      </c>
-    </row>
-    <row r="190" spans="1:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="190" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A190" s="1">
         <v>188</v>
       </c>
@@ -8488,12 +7736,8 @@
       <c r="I190" t="s">
         <v>496</v>
       </c>
-      <c r="J190">
-        <f t="shared" si="2"/>
-        <v>9.3283618721461181E-2</v>
-      </c>
-    </row>
-    <row r="191" spans="1:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="191" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A191" s="1">
         <v>189</v>
       </c>
@@ -8521,12 +7765,8 @@
       <c r="I191" t="s">
         <v>497</v>
       </c>
-      <c r="J191">
-        <f t="shared" si="2"/>
-        <v>9.3283618721461181E-2</v>
-      </c>
-    </row>
-    <row r="192" spans="1:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="192" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A192" s="1">
         <v>190</v>
       </c>
@@ -8554,12 +7794,8 @@
       <c r="I192" t="s">
         <v>498</v>
       </c>
-      <c r="J192">
-        <f t="shared" si="2"/>
-        <v>9.3283618721461181E-2</v>
-      </c>
-    </row>
-    <row r="193" spans="1:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="193" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A193" s="1">
         <v>191</v>
       </c>
@@ -8587,12 +7823,8 @@
       <c r="I193" t="s">
         <v>499</v>
       </c>
-      <c r="J193">
-        <f t="shared" si="2"/>
-        <v>9.3283618721461181E-2</v>
-      </c>
-    </row>
-    <row r="194" spans="1:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="194" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A194" s="1">
         <v>192</v>
       </c>
@@ -8620,12 +7852,8 @@
       <c r="I194" t="s">
         <v>500</v>
       </c>
-      <c r="J194">
-        <f t="shared" si="2"/>
-        <v>9.3283618721461181E-2</v>
-      </c>
-    </row>
-    <row r="195" spans="1:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="195" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A195" s="1">
         <v>193</v>
       </c>
@@ -8653,12 +7881,8 @@
       <c r="I195" t="s">
         <v>501</v>
       </c>
-      <c r="J195">
-        <f t="shared" ref="J195:J258" si="3">C195/10^3</f>
-        <v>0.18656723744292236</v>
-      </c>
-    </row>
-    <row r="196" spans="1:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="196" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A196" s="1">
         <v>194</v>
       </c>
@@ -8686,12 +7910,8 @@
       <c r="I196" t="s">
         <v>502</v>
       </c>
-      <c r="J196">
-        <f t="shared" si="3"/>
-        <v>9.3283618721461181E-2</v>
-      </c>
-    </row>
-    <row r="197" spans="1:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="197" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A197" s="1">
         <v>195</v>
       </c>
@@ -8719,12 +7939,8 @@
       <c r="I197" t="s">
         <v>503</v>
       </c>
-      <c r="J197">
-        <f t="shared" si="3"/>
-        <v>9.3283618721461181E-2</v>
-      </c>
-    </row>
-    <row r="198" spans="1:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="198" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A198" s="1">
         <v>196</v>
       </c>
@@ -8752,12 +7968,8 @@
       <c r="I198" t="s">
         <v>504</v>
       </c>
-      <c r="J198">
-        <f t="shared" si="3"/>
-        <v>9.3283618721461181E-2</v>
-      </c>
-    </row>
-    <row r="199" spans="1:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="199" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A199" s="1">
         <v>197</v>
       </c>
@@ -8785,12 +7997,8 @@
       <c r="I199" t="s">
         <v>505</v>
       </c>
-      <c r="J199">
-        <f t="shared" si="3"/>
-        <v>0.12557077625570776</v>
-      </c>
-    </row>
-    <row r="200" spans="1:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="200" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A200" s="1">
         <v>198</v>
       </c>
@@ -8818,12 +8026,8 @@
       <c r="I200" t="s">
         <v>506</v>
       </c>
-      <c r="J200">
-        <f t="shared" si="3"/>
-        <v>0.12557077625570776</v>
-      </c>
-    </row>
-    <row r="201" spans="1:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="201" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A201" s="1">
         <v>199</v>
       </c>
@@ -8851,12 +8055,8 @@
       <c r="I201" t="s">
         <v>507</v>
       </c>
-      <c r="J201">
-        <f t="shared" si="3"/>
-        <v>0.12557077625570776</v>
-      </c>
-    </row>
-    <row r="202" spans="1:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="202" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A202" s="1">
         <v>200</v>
       </c>
@@ -8884,12 +8084,8 @@
       <c r="I202" t="s">
         <v>508</v>
       </c>
-      <c r="J202">
-        <f t="shared" si="3"/>
-        <v>0.12557077625570776</v>
-      </c>
-    </row>
-    <row r="203" spans="1:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="203" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A203" s="1">
         <v>201</v>
       </c>
@@ -8917,12 +8113,8 @@
       <c r="I203" t="s">
         <v>509</v>
       </c>
-      <c r="J203">
-        <f t="shared" si="3"/>
-        <v>0.12557077625570776</v>
-      </c>
-    </row>
-    <row r="204" spans="1:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="204" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A204" s="1">
         <v>202</v>
       </c>
@@ -8950,12 +8142,8 @@
       <c r="I204" t="s">
         <v>510</v>
       </c>
-      <c r="J204">
-        <f t="shared" si="3"/>
-        <v>0.12557077625570776</v>
-      </c>
-    </row>
-    <row r="205" spans="1:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="205" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A205" s="1">
         <v>203</v>
       </c>
@@ -8983,12 +8171,8 @@
       <c r="I205" t="s">
         <v>511</v>
       </c>
-      <c r="J205">
-        <f t="shared" si="3"/>
-        <v>0.12557077625570776</v>
-      </c>
-    </row>
-    <row r="206" spans="1:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="206" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A206" s="1">
         <v>204</v>
       </c>
@@ -9016,12 +8200,8 @@
       <c r="I206" t="s">
         <v>512</v>
       </c>
-      <c r="J206">
-        <f t="shared" si="3"/>
-        <v>0.12557077625570776</v>
-      </c>
-    </row>
-    <row r="207" spans="1:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="207" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A207" s="1">
         <v>205</v>
       </c>
@@ -9049,12 +8229,8 @@
       <c r="I207" t="s">
         <v>513</v>
       </c>
-      <c r="J207">
-        <f t="shared" si="3"/>
-        <v>0.12557077625570776</v>
-      </c>
-    </row>
-    <row r="208" spans="1:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="208" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A208" s="1">
         <v>206</v>
       </c>
@@ -9082,12 +8258,8 @@
       <c r="I208" t="s">
         <v>514</v>
       </c>
-      <c r="J208">
-        <f t="shared" si="3"/>
-        <v>0.12557077625570776</v>
-      </c>
-    </row>
-    <row r="209" spans="1:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="209" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A209" s="1">
         <v>207</v>
       </c>
@@ -9115,12 +8287,8 @@
       <c r="I209" t="s">
         <v>515</v>
       </c>
-      <c r="J209">
-        <f t="shared" si="3"/>
-        <v>0.12557077625570776</v>
-      </c>
-    </row>
-    <row r="210" spans="1:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="210" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A210" s="1">
         <v>208</v>
       </c>
@@ -9148,12 +8316,8 @@
       <c r="I210" t="s">
         <v>516</v>
       </c>
-      <c r="J210">
-        <f t="shared" si="3"/>
-        <v>0.12557077625570776</v>
-      </c>
-    </row>
-    <row r="211" spans="1:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="211" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A211" s="1">
         <v>209</v>
       </c>
@@ -9181,12 +8345,8 @@
       <c r="I211" t="s">
         <v>517</v>
       </c>
-      <c r="J211">
-        <f t="shared" si="3"/>
-        <v>0.12557077625570776</v>
-      </c>
-    </row>
-    <row r="212" spans="1:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="212" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A212" s="1">
         <v>210</v>
       </c>
@@ -9214,12 +8374,8 @@
       <c r="I212" t="s">
         <v>518</v>
       </c>
-      <c r="J212">
-        <f t="shared" si="3"/>
-        <v>0.12557077625570776</v>
-      </c>
-    </row>
-    <row r="213" spans="1:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="213" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A213" s="1">
         <v>211</v>
       </c>
@@ -9247,12 +8403,8 @@
       <c r="I213" t="s">
         <v>519</v>
       </c>
-      <c r="J213">
-        <f t="shared" si="3"/>
-        <v>0.12557077625570776</v>
-      </c>
-    </row>
-    <row r="214" spans="1:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="214" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A214" s="1">
         <v>212</v>
       </c>
@@ -9280,12 +8432,8 @@
       <c r="I214" t="s">
         <v>520</v>
       </c>
-      <c r="J214">
-        <f t="shared" si="3"/>
-        <v>0.12557077625570776</v>
-      </c>
-    </row>
-    <row r="215" spans="1:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="215" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A215" s="1">
         <v>213</v>
       </c>
@@ -9313,12 +8461,8 @@
       <c r="I215" t="s">
         <v>521</v>
       </c>
-      <c r="J215">
-        <f t="shared" si="3"/>
-        <v>0.12557077625570776</v>
-      </c>
-    </row>
-    <row r="216" spans="1:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="216" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A216" s="1">
         <v>214</v>
       </c>
@@ -9346,12 +8490,8 @@
       <c r="I216" t="s">
         <v>522</v>
       </c>
-      <c r="J216">
-        <f t="shared" si="3"/>
-        <v>0.12557077625570776</v>
-      </c>
-    </row>
-    <row r="217" spans="1:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="217" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A217" s="1">
         <v>215</v>
       </c>
@@ -9379,12 +8519,8 @@
       <c r="I217" t="s">
         <v>523</v>
       </c>
-      <c r="J217">
-        <f t="shared" si="3"/>
-        <v>0.12557077625570776</v>
-      </c>
-    </row>
-    <row r="218" spans="1:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="218" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A218" s="1">
         <v>216</v>
       </c>
@@ -9412,12 +8548,8 @@
       <c r="I218" t="s">
         <v>524</v>
       </c>
-      <c r="J218">
-        <f t="shared" si="3"/>
-        <v>0.12557077625570776</v>
-      </c>
-    </row>
-    <row r="219" spans="1:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="219" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A219" s="1">
         <v>217</v>
       </c>
@@ -9445,12 +8577,8 @@
       <c r="I219" t="s">
         <v>525</v>
       </c>
-      <c r="J219">
-        <f t="shared" si="3"/>
-        <v>0.12557077625570776</v>
-      </c>
-    </row>
-    <row r="220" spans="1:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="220" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A220" s="1">
         <v>218</v>
       </c>
@@ -9478,12 +8606,8 @@
       <c r="I220" t="s">
         <v>526</v>
       </c>
-      <c r="J220">
-        <f t="shared" si="3"/>
-        <v>0.12557077625570776</v>
-      </c>
-    </row>
-    <row r="221" spans="1:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="221" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A221" s="1">
         <v>219</v>
       </c>
@@ -9511,12 +8635,8 @@
       <c r="I221" t="s">
         <v>527</v>
       </c>
-      <c r="J221">
-        <f t="shared" si="3"/>
-        <v>0.12557077625570776</v>
-      </c>
-    </row>
-    <row r="222" spans="1:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="222" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A222" s="1">
         <v>220</v>
       </c>
@@ -9544,12 +8664,8 @@
       <c r="I222" t="s">
         <v>528</v>
       </c>
-      <c r="J222">
-        <f t="shared" si="3"/>
-        <v>0.12557077625570776</v>
-      </c>
-    </row>
-    <row r="223" spans="1:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="223" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A223" s="1">
         <v>221</v>
       </c>
@@ -9577,12 +8693,8 @@
       <c r="I223" t="s">
         <v>529</v>
       </c>
-      <c r="J223">
-        <f t="shared" si="3"/>
-        <v>0.12557077625570776</v>
-      </c>
-    </row>
-    <row r="224" spans="1:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="224" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A224" s="1">
         <v>222</v>
       </c>
@@ -9610,12 +8722,8 @@
       <c r="I224" t="s">
         <v>530</v>
       </c>
-      <c r="J224">
-        <f t="shared" si="3"/>
-        <v>0.12557077625570776</v>
-      </c>
-    </row>
-    <row r="225" spans="1:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="225" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A225" s="1">
         <v>223</v>
       </c>
@@ -9643,12 +8751,8 @@
       <c r="I225" t="s">
         <v>531</v>
       </c>
-      <c r="J225">
-        <f t="shared" si="3"/>
-        <v>0.12557077625570776</v>
-      </c>
-    </row>
-    <row r="226" spans="1:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="226" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A226" s="1">
         <v>224</v>
       </c>
@@ -9676,12 +8780,8 @@
       <c r="I226" t="s">
         <v>532</v>
       </c>
-      <c r="J226">
-        <f t="shared" si="3"/>
-        <v>0.12557077625570776</v>
-      </c>
-    </row>
-    <row r="227" spans="1:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="227" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A227" s="1">
         <v>225</v>
       </c>
@@ -9709,12 +8809,8 @@
       <c r="I227" t="s">
         <v>533</v>
       </c>
-      <c r="J227">
-        <f t="shared" si="3"/>
-        <v>0.12557077625570776</v>
-      </c>
-    </row>
-    <row r="228" spans="1:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="228" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A228" s="1">
         <v>226</v>
       </c>
@@ -9742,12 +8838,8 @@
       <c r="I228" t="s">
         <v>534</v>
       </c>
-      <c r="J228">
-        <f t="shared" si="3"/>
-        <v>0.12557077625570776</v>
-      </c>
-    </row>
-    <row r="229" spans="1:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="229" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A229" s="1">
         <v>227</v>
       </c>
@@ -9775,12 +8867,8 @@
       <c r="I229" t="s">
         <v>535</v>
       </c>
-      <c r="J229">
-        <f t="shared" si="3"/>
-        <v>0.12557077625570776</v>
-      </c>
-    </row>
-    <row r="230" spans="1:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="230" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A230" s="1">
         <v>228</v>
       </c>
@@ -9808,12 +8896,8 @@
       <c r="I230" t="s">
         <v>536</v>
       </c>
-      <c r="J230">
-        <f t="shared" si="3"/>
-        <v>0.12557077625570776</v>
-      </c>
-    </row>
-    <row r="231" spans="1:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="231" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A231" s="1">
         <v>229</v>
       </c>
@@ -9841,12 +8925,8 @@
       <c r="I231" t="s">
         <v>537</v>
       </c>
-      <c r="J231">
-        <f t="shared" si="3"/>
-        <v>0.12557077625570776</v>
-      </c>
-    </row>
-    <row r="232" spans="1:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="232" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A232" s="1">
         <v>230</v>
       </c>
@@ -9874,12 +8954,8 @@
       <c r="I232" t="s">
         <v>538</v>
       </c>
-      <c r="J232">
-        <f t="shared" si="3"/>
-        <v>0.12557077625570776</v>
-      </c>
-    </row>
-    <row r="233" spans="1:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="233" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A233" s="1">
         <v>231</v>
       </c>
@@ -9907,12 +8983,8 @@
       <c r="I233" t="s">
         <v>539</v>
       </c>
-      <c r="J233">
-        <f t="shared" si="3"/>
-        <v>0.12557077625570776</v>
-      </c>
-    </row>
-    <row r="234" spans="1:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="234" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A234" s="1">
         <v>232</v>
       </c>
@@ -9940,12 +9012,8 @@
       <c r="I234" t="s">
         <v>540</v>
       </c>
-      <c r="J234">
-        <f t="shared" si="3"/>
-        <v>0.12557077625570776</v>
-      </c>
-    </row>
-    <row r="235" spans="1:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="235" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A235" s="1">
         <v>233</v>
       </c>
@@ -9973,12 +9041,8 @@
       <c r="I235" t="s">
         <v>541</v>
       </c>
-      <c r="J235">
-        <f t="shared" si="3"/>
-        <v>0.12557077625570776</v>
-      </c>
-    </row>
-    <row r="236" spans="1:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="236" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A236" s="1">
         <v>234</v>
       </c>
@@ -10006,12 +9070,8 @@
       <c r="I236" t="s">
         <v>542</v>
       </c>
-      <c r="J236">
-        <f t="shared" si="3"/>
-        <v>0.12557077625570776</v>
-      </c>
-    </row>
-    <row r="237" spans="1:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="237" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A237" s="1">
         <v>235</v>
       </c>
@@ -10039,12 +9099,8 @@
       <c r="I237" t="s">
         <v>543</v>
       </c>
-      <c r="J237">
-        <f t="shared" si="3"/>
-        <v>0.12557077625570776</v>
-      </c>
-    </row>
-    <row r="238" spans="1:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="238" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A238" s="1">
         <v>236</v>
       </c>
@@ -10072,12 +9128,8 @@
       <c r="I238" t="s">
         <v>544</v>
       </c>
-      <c r="J238">
-        <f t="shared" si="3"/>
-        <v>0.12557077625570776</v>
-      </c>
-    </row>
-    <row r="239" spans="1:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="239" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A239" s="1">
         <v>237</v>
       </c>
@@ -10105,12 +9157,8 @@
       <c r="I239" t="s">
         <v>545</v>
       </c>
-      <c r="J239">
-        <f t="shared" si="3"/>
-        <v>0.12557077625570776</v>
-      </c>
-    </row>
-    <row r="240" spans="1:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="240" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A240" s="1">
         <v>238</v>
       </c>
@@ -10138,12 +9186,8 @@
       <c r="I240" t="s">
         <v>546</v>
       </c>
-      <c r="J240">
-        <f t="shared" si="3"/>
-        <v>0.12557077625570776</v>
-      </c>
-    </row>
-    <row r="241" spans="1:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="241" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A241" s="1">
         <v>239</v>
       </c>
@@ -10171,12 +9215,8 @@
       <c r="I241" t="s">
         <v>547</v>
       </c>
-      <c r="J241">
-        <f t="shared" si="3"/>
-        <v>0.12557077625570776</v>
-      </c>
-    </row>
-    <row r="242" spans="1:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="242" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A242" s="1">
         <v>240</v>
       </c>
@@ -10204,12 +9244,8 @@
       <c r="I242" t="s">
         <v>548</v>
       </c>
-      <c r="J242">
-        <f t="shared" si="3"/>
-        <v>0.12557077625570776</v>
-      </c>
-    </row>
-    <row r="243" spans="1:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="243" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A243" s="1">
         <v>241</v>
       </c>
@@ -10237,12 +9273,8 @@
       <c r="I243" t="s">
         <v>549</v>
       </c>
-      <c r="J243">
-        <f t="shared" si="3"/>
-        <v>0.12557077625570776</v>
-      </c>
-    </row>
-    <row r="244" spans="1:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="244" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A244" s="1">
         <v>242</v>
       </c>
@@ -10270,12 +9302,8 @@
       <c r="I244" t="s">
         <v>550</v>
       </c>
-      <c r="J244">
-        <f t="shared" si="3"/>
-        <v>0.12557077625570776</v>
-      </c>
-    </row>
-    <row r="245" spans="1:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="245" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A245" s="1">
         <v>243</v>
       </c>
@@ -10303,12 +9331,8 @@
       <c r="I245" t="s">
         <v>551</v>
       </c>
-      <c r="J245">
-        <f t="shared" si="3"/>
-        <v>0.12557077625570776</v>
-      </c>
-    </row>
-    <row r="246" spans="1:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="246" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A246" s="1">
         <v>244</v>
       </c>
@@ -10336,12 +9360,8 @@
       <c r="I246" t="s">
         <v>552</v>
       </c>
-      <c r="J246">
-        <f t="shared" si="3"/>
-        <v>0.12557077625570776</v>
-      </c>
-    </row>
-    <row r="247" spans="1:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="247" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A247" s="1">
         <v>245</v>
       </c>
@@ -10369,12 +9389,8 @@
       <c r="I247" t="s">
         <v>553</v>
       </c>
-      <c r="J247">
-        <f t="shared" si="3"/>
-        <v>0.12557077625570776</v>
-      </c>
-    </row>
-    <row r="248" spans="1:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="248" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A248" s="1">
         <v>246</v>
       </c>
@@ -10402,12 +9418,8 @@
       <c r="I248" t="s">
         <v>554</v>
       </c>
-      <c r="J248">
-        <f t="shared" si="3"/>
-        <v>0.12557077625570776</v>
-      </c>
-    </row>
-    <row r="249" spans="1:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="249" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A249" s="1">
         <v>247</v>
       </c>
@@ -10435,12 +9447,8 @@
       <c r="I249" t="s">
         <v>555</v>
       </c>
-      <c r="J249">
-        <f t="shared" si="3"/>
-        <v>0.12557077625570776</v>
-      </c>
-    </row>
-    <row r="250" spans="1:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="250" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A250" s="1">
         <v>248</v>
       </c>
@@ -10468,12 +9476,8 @@
       <c r="I250" t="s">
         <v>556</v>
       </c>
-      <c r="J250">
-        <f t="shared" si="3"/>
-        <v>0.12557077625570776</v>
-      </c>
-    </row>
-    <row r="251" spans="1:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="251" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A251" s="1">
         <v>249</v>
       </c>
@@ -10501,12 +9505,8 @@
       <c r="I251" t="s">
         <v>557</v>
       </c>
-      <c r="J251">
-        <f t="shared" si="3"/>
-        <v>0.12557077625570776</v>
-      </c>
-    </row>
-    <row r="252" spans="1:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="252" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A252" s="1">
         <v>250</v>
       </c>
@@ -10534,12 +9534,8 @@
       <c r="I252" t="s">
         <v>558</v>
       </c>
-      <c r="J252">
-        <f t="shared" si="3"/>
-        <v>0.14840182648401828</v>
-      </c>
-    </row>
-    <row r="253" spans="1:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="253" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A253" s="1">
         <v>251</v>
       </c>
@@ -10567,12 +9563,8 @@
       <c r="I253" t="s">
         <v>559</v>
       </c>
-      <c r="J253">
-        <f t="shared" si="3"/>
-        <v>0.14840182648401828</v>
-      </c>
-    </row>
-    <row r="254" spans="1:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="254" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A254" s="1">
         <v>252</v>
       </c>
@@ -10600,12 +9592,8 @@
       <c r="I254" t="s">
         <v>560</v>
       </c>
-      <c r="J254">
-        <f t="shared" si="3"/>
-        <v>0.14840182648401828</v>
-      </c>
-    </row>
-    <row r="255" spans="1:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="255" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A255" s="1">
         <v>253</v>
       </c>
@@ -10633,12 +9621,8 @@
       <c r="I255" t="s">
         <v>561</v>
       </c>
-      <c r="J255">
-        <f t="shared" si="3"/>
-        <v>0.14840182648401828</v>
-      </c>
-    </row>
-    <row r="256" spans="1:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="256" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A256" s="1">
         <v>254</v>
       </c>
@@ -10666,12 +9650,8 @@
       <c r="I256" t="s">
         <v>562</v>
       </c>
-      <c r="J256">
-        <f t="shared" si="3"/>
-        <v>11.415525114155251</v>
-      </c>
-    </row>
-    <row r="257" spans="1:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="257" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A257" s="1">
         <v>255</v>
       </c>
@@ -10699,12 +9679,8 @@
       <c r="I257" t="s">
         <v>563</v>
       </c>
-      <c r="J257">
-        <f t="shared" si="3"/>
-        <v>11.415525114155251</v>
-      </c>
-    </row>
-    <row r="258" spans="1:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="258" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A258" s="1">
         <v>256</v>
       </c>
@@ -10732,12 +9708,8 @@
       <c r="I258" t="s">
         <v>564</v>
       </c>
-      <c r="J258">
-        <f t="shared" si="3"/>
-        <v>0.14840182648401828</v>
-      </c>
-    </row>
-    <row r="259" spans="1:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="259" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A259" s="1">
         <v>257</v>
       </c>
@@ -10765,12 +9737,8 @@
       <c r="I259" t="s">
         <v>565</v>
       </c>
-      <c r="J259">
-        <f t="shared" ref="J259:J295" si="4">C259/10^3</f>
-        <v>2.054794520547945</v>
-      </c>
-    </row>
-    <row r="260" spans="1:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="260" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A260" s="1">
         <v>258</v>
       </c>
@@ -10798,12 +9766,8 @@
       <c r="I260" t="s">
         <v>566</v>
       </c>
-      <c r="J260">
-        <f t="shared" si="4"/>
-        <v>0.14840182648401828</v>
-      </c>
-    </row>
-    <row r="261" spans="1:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="261" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A261" s="1">
         <v>259</v>
       </c>
@@ -10831,12 +9795,8 @@
       <c r="I261" t="s">
         <v>567</v>
       </c>
-      <c r="J261">
-        <f t="shared" si="4"/>
-        <v>0.14840182648401828</v>
-      </c>
-    </row>
-    <row r="262" spans="1:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="262" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A262" s="1">
         <v>260</v>
       </c>
@@ -10864,12 +9824,8 @@
       <c r="I262" t="s">
         <v>568</v>
       </c>
-      <c r="J262">
-        <f t="shared" si="4"/>
-        <v>0.14840182648401828</v>
-      </c>
-    </row>
-    <row r="263" spans="1:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="263" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A263" s="1">
         <v>261</v>
       </c>
@@ -10897,12 +9853,8 @@
       <c r="I263" t="s">
         <v>569</v>
       </c>
-      <c r="J263">
-        <f t="shared" si="4"/>
-        <v>11.415525114155251</v>
-      </c>
-    </row>
-    <row r="264" spans="1:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="264" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A264" s="1">
         <v>262</v>
       </c>
@@ -10930,12 +9882,8 @@
       <c r="I264" t="s">
         <v>570</v>
       </c>
-      <c r="J264">
-        <f t="shared" si="4"/>
-        <v>11.415525114155251</v>
-      </c>
-    </row>
-    <row r="265" spans="1:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="265" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A265" s="1">
         <v>263</v>
       </c>
@@ -10963,12 +9911,8 @@
       <c r="I265" t="s">
         <v>571</v>
       </c>
-      <c r="J265">
-        <f t="shared" si="4"/>
-        <v>11.415525114155251</v>
-      </c>
-    </row>
-    <row r="266" spans="1:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="266" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A266" s="1">
         <v>264</v>
       </c>
@@ -10996,12 +9940,8 @@
       <c r="I266" t="s">
         <v>572</v>
       </c>
-      <c r="J266">
-        <f t="shared" si="4"/>
-        <v>11.415525114155251</v>
-      </c>
-    </row>
-    <row r="267" spans="1:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="267" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A267" s="1">
         <v>265</v>
       </c>
@@ -11029,12 +9969,8 @@
       <c r="I267" t="s">
         <v>573</v>
       </c>
-      <c r="J267">
-        <f t="shared" si="4"/>
-        <v>0.14840182648401828</v>
-      </c>
-    </row>
-    <row r="268" spans="1:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="268" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A268" s="1">
         <v>266</v>
       </c>
@@ -11062,12 +9998,8 @@
       <c r="I268" t="s">
         <v>574</v>
       </c>
-      <c r="J268">
-        <f t="shared" si="4"/>
-        <v>0.14840182648401828</v>
-      </c>
-    </row>
-    <row r="269" spans="1:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="269" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A269" s="1">
         <v>267</v>
       </c>
@@ -11095,12 +10027,8 @@
       <c r="I269" t="s">
         <v>575</v>
       </c>
-      <c r="J269">
-        <f t="shared" si="4"/>
-        <v>0.14840182648401828</v>
-      </c>
-    </row>
-    <row r="270" spans="1:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="270" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A270" s="1">
         <v>268</v>
       </c>
@@ -11128,12 +10056,8 @@
       <c r="I270" t="s">
         <v>576</v>
       </c>
-      <c r="J270">
-        <f t="shared" si="4"/>
-        <v>11.415525114155251</v>
-      </c>
-    </row>
-    <row r="271" spans="1:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="271" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A271" s="1">
         <v>269</v>
       </c>
@@ -11161,12 +10085,8 @@
       <c r="I271" t="s">
         <v>577</v>
       </c>
-      <c r="J271">
-        <f t="shared" si="4"/>
-        <v>11.415525114155251</v>
-      </c>
-    </row>
-    <row r="272" spans="1:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="272" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A272" s="1">
         <v>270</v>
       </c>
@@ -11194,12 +10114,8 @@
       <c r="I272" t="s">
         <v>578</v>
       </c>
-      <c r="J272">
-        <f t="shared" si="4"/>
-        <v>11.415525114155251</v>
-      </c>
-    </row>
-    <row r="273" spans="1:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="273" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A273" s="1">
         <v>271</v>
       </c>
@@ -11227,12 +10143,8 @@
       <c r="I273" t="s">
         <v>579</v>
       </c>
-      <c r="J273">
-        <f t="shared" si="4"/>
-        <v>11.415525114155251</v>
-      </c>
-    </row>
-    <row r="274" spans="1:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="274" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A274" s="1">
         <v>272</v>
       </c>
@@ -11260,12 +10172,8 @@
       <c r="I274" t="s">
         <v>580</v>
       </c>
-      <c r="J274">
-        <f t="shared" si="4"/>
-        <v>11.415525114155251</v>
-      </c>
-    </row>
-    <row r="275" spans="1:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="275" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A275" s="1">
         <v>273</v>
       </c>
@@ -11293,12 +10201,8 @@
       <c r="I275" t="s">
         <v>581</v>
       </c>
-      <c r="J275">
-        <f t="shared" si="4"/>
-        <v>11.415525114155251</v>
-      </c>
-    </row>
-    <row r="276" spans="1:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="276" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A276" s="1">
         <v>274</v>
       </c>
@@ -11326,12 +10230,8 @@
       <c r="I276" t="s">
         <v>582</v>
       </c>
-      <c r="J276">
-        <f t="shared" si="4"/>
-        <v>11.415525114155251</v>
-      </c>
-    </row>
-    <row r="277" spans="1:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="277" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A277" s="1">
         <v>275</v>
       </c>
@@ -11359,12 +10259,8 @@
       <c r="I277" t="s">
         <v>583</v>
       </c>
-      <c r="J277">
-        <f t="shared" si="4"/>
-        <v>11.415525114155251</v>
-      </c>
-    </row>
-    <row r="278" spans="1:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="278" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A278" s="1">
         <v>276</v>
       </c>
@@ -11392,12 +10288,8 @@
       <c r="I278" t="s">
         <v>584</v>
       </c>
-      <c r="J278">
-        <f t="shared" si="4"/>
-        <v>11.415525114155251</v>
-      </c>
-    </row>
-    <row r="279" spans="1:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="279" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A279" s="1">
         <v>277</v>
       </c>
@@ -11425,12 +10317,8 @@
       <c r="I279" t="s">
         <v>585</v>
       </c>
-      <c r="J279">
-        <f t="shared" si="4"/>
-        <v>11.415525114155251</v>
-      </c>
-    </row>
-    <row r="280" spans="1:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="280" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A280" s="1">
         <v>278</v>
       </c>
@@ -11458,12 +10346,8 @@
       <c r="I280" t="s">
         <v>586</v>
       </c>
-      <c r="J280">
-        <f t="shared" si="4"/>
-        <v>11.415525114155251</v>
-      </c>
-    </row>
-    <row r="281" spans="1:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="281" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A281" s="1">
         <v>279</v>
       </c>
@@ -11491,12 +10375,8 @@
       <c r="I281" t="s">
         <v>587</v>
       </c>
-      <c r="J281">
-        <f t="shared" si="4"/>
-        <v>11.415525114155251</v>
-      </c>
-    </row>
-    <row r="282" spans="1:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="282" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A282" s="1">
         <v>280</v>
       </c>
@@ -11524,12 +10404,8 @@
       <c r="I282" t="s">
         <v>588</v>
       </c>
-      <c r="J282">
-        <f t="shared" si="4"/>
-        <v>11.4</v>
-      </c>
-    </row>
-    <row r="283" spans="1:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="283" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A283" s="1">
         <v>281</v>
       </c>
@@ -11557,12 +10433,8 @@
       <c r="I283" t="s">
         <v>589</v>
       </c>
-      <c r="J283">
-        <f t="shared" si="4"/>
-        <v>11.4</v>
-      </c>
-    </row>
-    <row r="284" spans="1:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="284" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A284" s="1">
         <v>282</v>
       </c>
@@ -11590,12 +10462,8 @@
       <c r="I284" t="s">
         <v>590</v>
       </c>
-      <c r="J284">
-        <f t="shared" si="4"/>
-        <v>11.4</v>
-      </c>
-    </row>
-    <row r="285" spans="1:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="285" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A285" s="1">
         <v>283</v>
       </c>
@@ -11623,12 +10491,8 @@
       <c r="I285" t="s">
         <v>591</v>
       </c>
-      <c r="J285">
-        <f t="shared" si="4"/>
-        <v>11.4</v>
-      </c>
-    </row>
-    <row r="286" spans="1:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="286" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A286" s="1">
         <v>284</v>
       </c>
@@ -11656,12 +10520,8 @@
       <c r="I286" t="s">
         <v>592</v>
       </c>
-      <c r="J286">
-        <f t="shared" si="4"/>
-        <v>11.415525114155251</v>
-      </c>
-    </row>
-    <row r="287" spans="1:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="287" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A287" s="1">
         <v>285</v>
       </c>
@@ -11689,12 +10549,8 @@
       <c r="I287" t="s">
         <v>593</v>
       </c>
-      <c r="J287">
-        <f t="shared" si="4"/>
-        <v>11.415525114155251</v>
-      </c>
-    </row>
-    <row r="288" spans="1:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="288" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A288" s="1">
         <v>286</v>
       </c>
@@ -11722,12 +10578,8 @@
       <c r="I288" t="s">
         <v>594</v>
       </c>
-      <c r="J288">
-        <f t="shared" si="4"/>
-        <v>11.415525114155251</v>
-      </c>
-    </row>
-    <row r="289" spans="1:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="289" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A289" s="1">
         <v>287</v>
       </c>
@@ -11755,12 +10607,8 @@
       <c r="I289" t="s">
         <v>595</v>
       </c>
-      <c r="J289">
-        <f t="shared" si="4"/>
-        <v>11.415525114155251</v>
-      </c>
-    </row>
-    <row r="290" spans="1:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="290" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A290" s="1">
         <v>288</v>
       </c>
@@ -11788,12 +10636,8 @@
       <c r="I290" t="s">
         <v>596</v>
       </c>
-      <c r="J290">
-        <f t="shared" si="4"/>
-        <v>11.415525114155299</v>
-      </c>
-    </row>
-    <row r="291" spans="1:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="291" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A291" s="1">
         <v>289</v>
       </c>
@@ -11821,12 +10665,8 @@
       <c r="I291" t="s">
         <v>597</v>
       </c>
-      <c r="J291">
-        <f t="shared" si="4"/>
-        <v>11.415525114155251</v>
-      </c>
-    </row>
-    <row r="292" spans="1:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="292" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A292" s="1">
         <v>290</v>
       </c>
@@ -11854,12 +10694,8 @@
       <c r="I292" t="s">
         <v>598</v>
       </c>
-      <c r="J292">
-        <f t="shared" si="4"/>
-        <v>2.054794520547945</v>
-      </c>
-    </row>
-    <row r="293" spans="1:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="293" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A293" s="1">
         <v>291</v>
       </c>
@@ -11887,12 +10723,8 @@
       <c r="I293" t="s">
         <v>599</v>
       </c>
-      <c r="J293">
-        <f t="shared" si="4"/>
-        <v>11.415525114155251</v>
-      </c>
-    </row>
-    <row r="294" spans="1:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="294" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A294" s="1">
         <v>292</v>
       </c>
@@ -11920,12 +10752,8 @@
       <c r="I294" t="s">
         <v>600</v>
       </c>
-      <c r="J294">
-        <f t="shared" si="4"/>
-        <v>11.415525114155299</v>
-      </c>
-    </row>
-    <row r="295" spans="1:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="295" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A295" s="1">
         <v>293</v>
       </c>
@@ -11952,10 +10780,6 @@
       </c>
       <c r="I295" t="s">
         <v>601</v>
-      </c>
-      <c r="J295">
-        <f t="shared" si="4"/>
-        <v>11.415525114155251</v>
       </c>
     </row>
   </sheetData>
